--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150732A-3720-4504-8773-B7D6C7BA865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30983D33-A80F-45A4-9677-1EE09F665DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="151">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -268,6 +253,246 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>wparent</t>
+  </si>
+  <si>
+    <t>dparent</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>S1,S2,S3,S4,S5</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>elc_sol-ITA</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S1aH5</t>
+  </si>
+  <si>
+    <t>S1aH6</t>
+  </si>
+  <si>
+    <t>S1aH7</t>
+  </si>
+  <si>
+    <t>S1aH8</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>S2aH5</t>
+  </si>
+  <si>
+    <t>S2aH6</t>
+  </si>
+  <si>
+    <t>S2aH7</t>
+  </si>
+  <si>
+    <t>S2aH8</t>
+  </si>
+  <si>
+    <t>S3aH1</t>
+  </si>
+  <si>
+    <t>S3aH2</t>
+  </si>
+  <si>
+    <t>S3aH3</t>
+  </si>
+  <si>
+    <t>S3aH4</t>
+  </si>
+  <si>
+    <t>S3aH5</t>
+  </si>
+  <si>
+    <t>S3aH6</t>
+  </si>
+  <si>
+    <t>S3aH7</t>
+  </si>
+  <si>
+    <t>S3aH8</t>
+  </si>
+  <si>
+    <t>S4aH1</t>
+  </si>
+  <si>
+    <t>S4aH2</t>
+  </si>
+  <si>
+    <t>S4aH3</t>
+  </si>
+  <si>
+    <t>S4aH4</t>
+  </si>
+  <si>
+    <t>S4aH5</t>
+  </si>
+  <si>
+    <t>S4aH6</t>
+  </si>
+  <si>
+    <t>S4aH7</t>
+  </si>
+  <si>
+    <t>S4aH8</t>
+  </si>
+  <si>
+    <t>S5aH1</t>
+  </si>
+  <si>
+    <t>S5aH2</t>
+  </si>
+  <si>
+    <t>S5aH3</t>
+  </si>
+  <si>
+    <t>S5aH4</t>
+  </si>
+  <si>
+    <t>S5aH5</t>
+  </si>
+  <si>
+    <t>S5aH6</t>
+  </si>
+  <si>
+    <t>S5aH7</t>
+  </si>
+  <si>
+    <t>S5aH8</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>elc_win-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>S4aH5,S4aH2,S5aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S1aH4,S2aH2,S3aH2,S1aH2,S2aH3,S3aH5,S5aH3,S3aH4,S4aH3,S4aH4,S3aH3</t>
+  </si>
+  <si>
+    <t>S2aH1,S3aH7,S5aH8,S1aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH8,S4aH1,S1aH1,S2aH7,S3aH8,S2aH8,S2aH6,S3aH1,S1aH8,S5aH1,S4aH6</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -744,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -760,13 +985,13 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -780,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -795,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -803,21 +1028,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>S2aH1,S3aH7,S5aH8,S1aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH8,S4aH1,S1aH1,S2aH7,S3aH8,S2aH8,S2aH6,S3aH1,S1aH8,S5aH1,S4aH6</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -835,21 +1060,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>S4aH5,S4aH2,S5aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S1aH4,S2aH2,S3aH2,S1aH2,S2aH3,S3aH5,S5aH3,S3aH4,S4aH3,S4aH4,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -861,26 +1086,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -908,553 +1133,3593 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE92120-45BC-4662-8EF8-970045FF8299}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1156792-4FB0-4D7F-B387-B3B3DC93CA2C}">
+  <dimension ref="B2:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>4.0774999999999999E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4">
+        <v>0.14770939379916706</v>
+      </c>
+      <c r="O4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>8.8889999999999998E-5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5">
+        <v>5.3729999999999993E-3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <v>0.45489356779268852</v>
+      </c>
+      <c r="O5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>2.2627109999999999E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>1.4475999999999999E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6">
+        <v>0.13802637667746412</v>
+      </c>
+      <c r="O6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>3.1515769999999999E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>2.1163000000000001E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7">
+        <v>0.38152475705691807</v>
+      </c>
+      <c r="O7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>6.8002030000000005E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8">
+        <v>7.1017999999999998E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8">
+        <v>7.7845904673762151E-2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>2.6397600000000001E-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9">
+        <v>1.0756E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10">
+        <v>1.1674E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11">
+        <v>3.3270000000000001E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>1.378014E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12">
+        <v>6.4889000000000002E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>2.2232410000000001E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13">
+        <v>9.8399999999999998E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>6.1518330000000003E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14">
+        <v>3.3799000000000003E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>6.7698190000000005E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15">
+        <v>5.2359999999999997E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16">
+        <v>0.15982843999999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16">
+        <v>0.17358999999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>2.2495669999999999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17">
+        <v>2.5507999999999999E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>1.179971E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18">
+        <v>2.0265999999999999E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>2.4689500000000001E-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19">
+        <v>4.6764E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>6.9502299999999999E-3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20">
+        <v>1.0950000000000001E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>8.8978100000000008E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21">
+        <v>1.4E-5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>2.1362920000000001E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22">
+        <v>1.08E-4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23">
+        <v>2.2302309999999999E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23">
+        <v>8.3600000000000005E-4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>5.0535759999999999E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24">
+        <v>1.8824E-2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25">
+        <v>7.6808800000000002E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25">
+        <v>3.3969999999999998E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>5.4394600000000001E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26">
+        <v>1.915E-3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>1.8646700000000001E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27">
+        <v>1.9039999999999999E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>5.3654999999999996E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28">
+        <v>4.8161000000000002E-2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>1.8131049999999999E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29">
+        <v>5.5269999999999998E-3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>5.9624789999999997E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30">
+        <v>1.5792E-2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>138</v>
+      </c>
+      <c r="K30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>6.9100110000000006E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31">
+        <v>2.8983999999999999E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32">
+        <v>0.15711573000000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32">
+        <v>9.9659999999999999E-2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33">
+        <v>1.427003E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33">
+        <v>1.4661E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <v>5.76283E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34">
+        <v>1.1509999999999999E-2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35">
+        <v>8.2800000000000003E-6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35">
+        <v>3.4647999999999998E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36">
+        <v>2.1659999999999999E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37">
+        <v>2.5929999999999998E-3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38">
+        <v>1.024945E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38">
+        <v>5.4539999999999996E-3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39">
+        <v>1.5962420000000001E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39">
+        <v>5.7080000000000004E-3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40">
+        <v>3.2680319999999999E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40">
+        <v>2.0205000000000001E-2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>138</v>
+      </c>
+      <c r="K40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41">
+        <v>2.849E-3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42">
+        <v>2.9480000000000001E-3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>138</v>
+      </c>
+      <c r="K42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43">
+        <v>1.3637999999999999E-2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B93F2C-08B2-4552-8789-9EB92938A750}">
+  <dimension ref="B2:O83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>5.3881278538812784E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.9864505382492607E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4">
+        <v>4.9413150019647384E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4">
+        <v>0.30170207507267222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C5">
+        <v>8.6053584599192871E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5">
+        <v>8.3943858858496045E-3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5">
+        <v>4.7484009459135335E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>1.3470319634703196E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.6839121895432966E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6">
+        <v>1.700531767651765E-2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>4.824655587311355E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>1.3470319634703196E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.6702218465388795E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1.6777383906641918E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>6.0317454394499759E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>3.3675799086757989E-2</v>
+      </c>
+      <c r="C8">
+        <v>5.4037739601720411E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8">
+        <v>4.2415004863410904E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8">
+        <v>7.7866629521058162E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.016996908899552E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9">
+        <v>8.8413511413772579E-3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <v>4.0331772644039976E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>6.735159817351598E-3</v>
+      </c>
+      <c r="C10">
+        <v>9.1920874458228732E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10">
+        <v>8.5385270462681635E-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10">
+        <v>3.0789916534887052E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>2.6940639269406392E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.623283527666592E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11">
+        <v>2.8553373673719802E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11">
+        <v>0.109785485062313</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>0.11141552511415526</v>
+      </c>
+      <c r="C12">
+        <v>6.1753722994306731E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12">
+        <v>9.0904601496028622E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12">
+        <v>0.39609048684121051</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.7794131052714456E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13">
+        <v>1.4801270832185959E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13">
+        <v>0.17260864196062009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.4819879173607154E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14">
+        <v>2.9861072108283881E-2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14">
+        <v>0.16771535784982539</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.4536790725041226E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15">
+        <v>2.9646906653991761E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15">
+        <v>0.1682397095214816</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>6.9634703196347028E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.11173905476965917</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16">
+        <v>7.3928865615248154E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16">
+        <v>0.19323961229369258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.1029427607753434E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17">
+        <v>1.5030507466939664E-2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17">
+        <v>0.18025049028347295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.9007367260854072E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18">
+        <v>1.4913767770150556E-2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18">
+        <v>0.15800839499366748</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.3566201758529535E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19">
+        <v>5.1929529158049881E-2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19">
+        <v>0.19990108030983977</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>2.8310502283105023E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.5691519777241876E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20">
+        <v>2.3847087699625354E-2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20">
+        <v>0.29079453954855983</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21">
+        <v>3.9226118087310096E-3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21">
+        <v>7.4383366010698726E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C22">
+        <v>8.8476742162444406E-3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22">
+        <v>8.0528034089415845E-3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22">
+        <v>6.822201466584521E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C23">
+        <v>8.775741905543262E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23">
+        <v>8.1706582379173116E-3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23">
+        <v>7.2534412655806291E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>1.7694063926940638E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.8392710638192088E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24">
+        <v>2.0148281192040179E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24">
+        <v>8.0585218842956552E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.3435430806586613E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25">
+        <v>3.969488661761114E-3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25">
+        <v>6.0510923392422367E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C26">
+        <v>4.8297408613645603E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26">
+        <v>3.9291786982744333E-3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26">
+        <v>6.5424670864874468E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>1.4155251141552512E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.5291168402820937E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27">
+        <v>1.4304428038648183E-2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>120</v>
+      </c>
+      <c r="O27">
+        <v>0.16837934519996667</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>0.11141552511415526</v>
+      </c>
+      <c r="C28">
+        <v>6.1753722994306731E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28">
+        <v>9.0201913914656887E-2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28">
+        <v>0.3257378459195408</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.7794131052714456E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29">
+        <v>1.458652054518594E-2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>122</v>
+      </c>
+      <c r="O29">
+        <v>0.13113733252573989</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.4819879173607154E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30">
+        <v>2.9773057299849567E-2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30">
+        <v>0.13375718145694071</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>2.7853881278538814E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.4536790725041226E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31">
+        <v>2.9841001515502973E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31">
+        <v>0.12830972920522465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>6.9634703196347028E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.11173905476965917</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32">
+        <v>7.4324036133024088E-2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32">
+        <v>0.16794411000882747</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1029427607753434E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33">
+        <v>1.494214258241032E-2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>126</v>
+      </c>
+      <c r="O33">
+        <v>0.16530699032086882</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>1.3926940639269407E-2</v>
+      </c>
+      <c r="C34">
+        <v>1.9007367260854072E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34">
+        <v>1.4815325394749541E-2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34">
+        <v>0.12381007042058645</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.3566201758529535E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35">
+        <v>5.2827105256473848E-2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35">
+        <v>0.18969821164223233</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>2.8310502283105023E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.5691519777241876E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36">
+        <v>2.5278796395052556E-2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>129</v>
+      </c>
+      <c r="O36">
+        <v>0.3018567715645406</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C37">
+        <v>4.521459529788099E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37">
+        <v>4.2866483841047468E-3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" t="s">
+        <v>130</v>
+      </c>
+      <c r="O37">
+        <v>5.8368729564079569E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C38">
+        <v>8.8476742162444406E-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38">
+        <v>8.6358981114670781E-3</v>
+      </c>
+      <c r="M38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>131</v>
+      </c>
+      <c r="O38">
+        <v>6.3279503760392153E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>7.0776255707762558E-3</v>
+      </c>
+      <c r="C39">
+        <v>8.775741905543262E-3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39">
+        <v>8.4215374151759489E-3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O39">
+        <v>6.5636106328051946E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>1.7694063926940638E-2</v>
+      </c>
+      <c r="C40">
+        <v>2.8392710638192088E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40">
+        <v>2.1316051665275386E-2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" t="s">
+        <v>133</v>
+      </c>
+      <c r="O40">
+        <v>8.7961716292424663E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C41">
+        <v>5.3435430806586613E-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41">
+        <v>4.5114770552655533E-3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41">
+        <v>4.44627304048415E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>3.5388127853881279E-3</v>
+      </c>
+      <c r="C42">
+        <v>4.8297408613645603E-3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42">
+        <v>4.3715673897100236E-3</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" t="s">
+        <v>135</v>
+      </c>
+      <c r="O42">
+        <v>3.5079218054054673E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>1.4155251141552512E-2</v>
+      </c>
+      <c r="C43">
+        <v>8.5291168402820937E-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43">
+        <v>1.4567367881845251E-2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>136</v>
+      </c>
+      <c r="O43">
+        <v>0.11194355190956351</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H44" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44">
+        <v>5.3084237148893397E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45">
+        <v>6.8128512704278962E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46">
+        <v>1.3643016669286061E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>1.3624792013555292E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48">
+        <v>3.4099682858947933E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49">
+        <v>6.8485887915071438E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H50" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" t="s">
+        <v>103</v>
+      </c>
+      <c r="J50">
+        <v>6.8243762104431196E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H51" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51">
+        <v>2.6849692925335147E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52">
+        <v>0.11009359446781739</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53">
+        <v>1.4036603426470031E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54">
+        <v>2.8093877894088494E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H55" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55">
+        <v>2.8076754096785336E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56">
+        <v>7.0176821463893937E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H57" t="s">
+        <v>145</v>
+      </c>
+      <c r="I57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57">
+        <v>1.4054932253969107E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H58" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58">
+        <v>1.4045598223363393E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H59" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59">
+        <v>5.5564690032008805E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H60" t="s">
+        <v>145</v>
+      </c>
+      <c r="I60" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60">
+        <v>2.7919657774016834E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61">
+        <v>3.5652537842164418E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H62" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
+      </c>
+      <c r="J62">
+        <v>7.1471048029648366E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H63" t="s">
+        <v>145</v>
+      </c>
+      <c r="I63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J63">
+        <v>7.1565279949976019E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64">
+        <v>1.7869063103792035E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H65" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65">
+        <v>3.5690018664276965E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J66">
+        <v>3.5657788459535246E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67">
+        <v>1.4150194688004086E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" t="s">
+        <v>121</v>
+      </c>
+      <c r="J68">
+        <v>0.11003032894153919</v>
+      </c>
+    </row>
+    <row r="69" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" t="s">
+        <v>122</v>
+      </c>
+      <c r="J69">
+        <v>1.4018547682109401E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70">
+        <v>2.8085070216109214E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
+        <v>145</v>
+      </c>
+      <c r="I71" t="s">
+        <v>124</v>
+      </c>
+      <c r="J71">
+        <v>2.8090502758816051E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72">
+        <v>7.0203991757650464E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" t="s">
+        <v>126</v>
+      </c>
+      <c r="J73">
+        <v>1.4046981771547846E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" t="s">
+        <v>127</v>
+      </c>
+      <c r="J74">
+        <v>1.4036841985823589E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H75" t="s">
+        <v>145</v>
+      </c>
+      <c r="I75" t="s">
+        <v>128</v>
+      </c>
+      <c r="J75">
+        <v>5.5632915815616614E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H76" t="s">
+        <v>145</v>
+      </c>
+      <c r="I76" t="s">
+        <v>129</v>
+      </c>
+      <c r="J76">
+        <v>2.7912858509718089E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H77" t="s">
+        <v>145</v>
+      </c>
+      <c r="I77" t="s">
+        <v>130</v>
+      </c>
+      <c r="J77">
+        <v>3.5792015584238993E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
+        <v>145</v>
+      </c>
+      <c r="I78" t="s">
+        <v>131</v>
+      </c>
+      <c r="J78">
+        <v>7.1634084652425324E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H79" t="s">
+        <v>145</v>
+      </c>
+      <c r="I79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79">
+        <v>7.1462690571844666E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
+        <v>145</v>
+      </c>
+      <c r="I80" t="s">
+        <v>133</v>
+      </c>
+      <c r="J80">
+        <v>1.7886637736694772E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H81" t="s">
+        <v>145</v>
+      </c>
+      <c r="I81" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81">
+        <v>3.5971779431103182E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I82" t="s">
+        <v>135</v>
+      </c>
+      <c r="J82">
+        <v>3.5859913361869712E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>145</v>
+      </c>
+      <c r="I83" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83">
+        <v>1.411058185706111E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21259ACD-E5BD-43B0-82EC-C9F7A82E24E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF87DE2-295D-401A-8009-82103957650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18</t>
-  </si>
-  <si>
-    <t>S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06</t>
+    <t>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16</t>
+  </si>
+  <si>
+    <t>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06</v>
+        <v>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18</v>
+        <v>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0258FF5-002E-4F37-BB15-C2B50CEF255E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D48FABC-856E-4489-8463-37DE937ADEB4}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D416AC77-F315-4FEA-A12F-91A441D6AB13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC392FF-1550-4C5E-8979-04E89EC9B2B5}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>9.3706617306802395E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N9">
-        <v>8.8500694123091153E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA596C2D-920E-4B7F-B347-CAA099D7A578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D792281-411B-4009-B71A-C0C5FD9A7DA8}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF87DE2-295D-401A-8009-82103957650C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5709A19-9442-4623-8D73-238C036717AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16</t>
-  </si>
-  <si>
-    <t>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24</t>
+    <t>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11</t>
+  </si>
+  <si>
+    <t>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24</v>
+        <v>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16</v>
+        <v>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D48FABC-856E-4489-8463-37DE937ADEB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640AD6AA-9C69-4B2A-B522-E6851AA77F92}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC392FF-1550-4C5E-8979-04E89EC9B2B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BA5A0-7591-4B4C-A039-7AD107919FA3}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>8.8500694123091153E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N6">
-        <v>0.40439611291068944</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.16266774641369736</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.31582600647848219</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>0.13490282276723739</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D792281-411B-4009-B71A-C0C5FD9A7DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B65590-B694-4680-9742-E56816AD9630}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5709A19-9442-4623-8D73-238C036717AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF9DA86-E708-496E-850A-145EB822760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11</t>
-  </si>
-  <si>
-    <t>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01</t>
+    <t>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18</t>
+  </si>
+  <si>
+    <t>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01</v>
+        <v>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11</v>
+        <v>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640AD6AA-9C69-4B2A-B522-E6851AA77F92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4889C5E3-DA2E-47C0-8785-7B925CD91F08}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BA5A0-7591-4B4C-A039-7AD107919FA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF162B6-A0EA-432B-8D99-92E8CB246D26}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>9.3706617306802395E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.16266774641369736</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.40439611291068944</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B65590-B694-4680-9742-E56816AD9630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEE11C2-E7FA-4629-ACB1-10B23B160629}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF9DA86-E708-496E-850A-145EB822760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B2F53-FE77-4CD8-9208-89C932003C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18</t>
-  </si>
-  <si>
-    <t>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22</t>
+    <t>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</t>
+  </si>
+  <si>
+    <t>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22</v>
+        <v>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18</v>
+        <v>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4889C5E3-DA2E-47C0-8785-7B925CD91F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D2EBF6-A2A9-4CB6-AAD3-063013AEC948}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF162B6-A0EA-432B-8D99-92E8CB246D26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B6FF2A-CD8E-4BC8-B045-5145900B47B6}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>0.31582600647848219</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.4043961129106895</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>8.8500694123091153E-2</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEE11C2-E7FA-4629-ACB1-10B23B160629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9CC69-2B83-4EBE-82E2-A44919EBE389}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49B2F53-FE77-4CD8-9208-89C932003C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF624E88-A6FA-4C46-BD3F-946CF0FA8E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</t>
-  </si>
-  <si>
-    <t>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</t>
+    <t>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</t>
+  </si>
+  <si>
+    <t>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</v>
+        <v>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</v>
+        <v>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D2EBF6-A2A9-4CB6-AAD3-063013AEC948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433BA474-C483-4A75-A151-EF6425BE1112}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B6FF2A-CD8E-4BC8-B045-5145900B47B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E594ABF7-A223-4F0B-8DE2-9ACD4CFBFC2F}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.13490282276723739</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.4043961129106895</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N6">
-        <v>9.3706617306802395E-2</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.16266774641369736</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>8.8500694123091153E-2</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9CC69-2B83-4EBE-82E2-A44919EBE389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623E7200-E157-42CE-A6D7-43DD18038DF6}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF624E88-A6FA-4C46-BD3F-946CF0FA8E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB09BCB-62EC-4977-A2EB-986C255983EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</t>
-  </si>
-  <si>
-    <t>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</t>
+    <t>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</t>
+  </si>
+  <si>
+    <t>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</v>
+        <v>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</v>
+        <v>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433BA474-C483-4A75-A151-EF6425BE1112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD0726-AD7D-4DE2-9561-7E78F4E3FB66}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E594ABF7-A223-4F0B-8DE2-9ACD4CFBFC2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8679DB28-732A-48CD-94F2-72EEB6952056}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>9.3706617306802395E-2</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N6">
-        <v>8.8500694123091153E-2</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.40439611291068944</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.16266774641369736</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623E7200-E157-42CE-A6D7-43DD18038DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C61E02A-FCF7-4297-A8A0-DD7C350C23DB}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB09BCB-62EC-4977-A2EB-986C255983EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0654EE89-7A82-49B6-9BCA-0EF159CEB88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</t>
-  </si>
-  <si>
-    <t>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</t>
+    <t>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17</t>
+  </si>
+  <si>
+    <t>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</v>
+        <v>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</v>
+        <v>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCD0726-AD7D-4DE2-9561-7E78F4E3FB66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88588C-629E-451A-9B6C-757A11703CDD}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8679DB28-732A-48CD-94F2-72EEB6952056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E204A0B4-1798-4945-906C-CE6C6A7A63D9}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>8.8500694123091153E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.16266774641369736</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>0.4043961129106895</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.13490282276723739</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>0.31582600647848219</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C61E02A-FCF7-4297-A8A0-DD7C350C23DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABE1FE2-0873-488A-9B9A-160018E21E7F}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0654EE89-7A82-49B6-9BCA-0EF159CEB88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB29282-B699-414E-9DAB-782364616700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17</t>
-  </si>
-  <si>
-    <t>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05</t>
+    <t>S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</t>
+  </si>
+  <si>
+    <t>S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05</v>
+        <v>S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17</v>
+        <v>S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C88588C-629E-451A-9B6C-757A11703CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC528807-D53F-4F78-8129-5005C6A971CD}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E204A0B4-1798-4945-906C-CE6C6A7A63D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FB465D-9F03-45E2-A311-FB7279102578}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>8.8500694123091153E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N7">
-        <v>0.31582600647848219</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.13490282276723739</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>469</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>9.3706617306802395E-2</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABE1FE2-0873-488A-9B9A-160018E21E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79B6E8D-EF6C-492E-8160-9E9BE16D915A}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB29282-B699-414E-9DAB-782364616700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD225EA-BE34-474E-A5DB-16A56E2900B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</t>
-  </si>
-  <si>
-    <t>S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</t>
+    <t>S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14</t>
+  </si>
+  <si>
+    <t>S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23</v>
+        <v>S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15</v>
+        <v>S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC528807-D53F-4F78-8129-5005C6A971CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6182FCC6-0A75-4FA6-BCF7-3D74E989F84F}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FB465D-9F03-45E2-A311-FB7279102578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF66022-30A4-4559-BDB5-D92139958DB2}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>469</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>9.3706617306802395E-2</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.16266774641369736</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.40439611291068944</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79B6E8D-EF6C-492E-8160-9E9BE16D915A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A298C95E-2767-4E74-90A5-16F34CEB554D}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B922A5-B843-41AA-A181-01D904DBF3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C647811-4CEF-4513-BAB2-43F5C10266D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18</t>
-  </si>
-  <si>
-    <t>S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06</t>
+    <t>S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10</t>
+  </si>
+  <si>
+    <t>S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06</v>
+        <v>S1aH7,S1c0131h22,S1f0306h22,S3aH6,S4aH7,S5aH6,S5aH7,S5k1007h04,S6aH6,S6l1115h21,S6n1206h22,S6o1225h02,S6p1230h20,S1b0105h01,S1c0131h02,S1d0211h06,S1e0301h21,S1f0306h03,S1f0306h04,S1g0318h05,S1h0411h06,S1h0411h23,S1h0411h24,S2i0517h19,S4aH8,S6m1126h04,S6o1225h19,S6o1225h20,S6p1230h06,S1aH1,S1b0105h24,S1d0211h05,S1g0318h02,S2aH7,S2i0517h20,S2i0517h22,S2i0517h24,S4j0909h24,S6o1225h03,S6p1230h23,S1aH8,S1c0131h05,S1c0131h20,S1e0301h22,S1h0411h20,S2i0517h21,S5aH1,S5k1007h20,S6aH7,S6l1115h04,S6m1126h02,S6m1126h03,S6n1206h19,S6o1225h01,S6o1225h06,S6o1225h23,S1b0105h05,S1b0105h21,S1d0211h02,S1d0211h03,S1e0301h01,S1g0318h21,S1g0318h22,S2i0517h02,S4aH1,S4j0909h04,S5k1007h22,S6aH1,S6n1206h21,S6o1225h05,S6o1225h21,S1b0105h03,S1c0131h06,S1c0131h24,S1d0211h04,S1d0211h24,S1e0301h24,S1f0306h06,S1g0318h03,S2aH1,S3aH7,S5aH8,S6l1115h05,S6n1206h03,S6o1225h04,S1e0301h02,S1e0301h04,S1f0306h02,S1g0318h04,S4j0909h23,S5k1007h23,S5k1007h24,S6m1126h22,S6n1206h01,S1b0105h19,S1b0105h23,S1h0411h19,S1h0411h21,S2aH6,S2i0517h03,S2i0517h06,S3aH1,S4j0909h20,S5k1007h01,S5k1007h05,S6l1115h03,S6l1115h23,S1c0131h01,S1c0131h19,S1d0211h21,S1g0318h24,S1h0411h04,S1h0411h05,S2i0517h04,S2i0517h05,S3aH8,S4j0909h19,S5k1007h03,S6l1115h19,S6m1126h21,S6p1230h01,S6p1230h19,S1aH6,S1c0131h03,S1e0301h03,S1e0301h06,S1f0306h05,S1f0306h23,S1f0306h24,S1g0318h06,S1g0318h23,S1h0411h03,S4j0909h05,S5k1007h02,S6m1126h24,S6n1206h05,S6n1206h06,S6n1206h24,S6o1225h22,S1b0105h02,S1d0211h01,S1d0211h19,S1d0211h22,S1e0301h05,S1h0411h01,S1h0411h02,S1h0411h22,S4j0909h21,S5k1007h19,S5k1007h21,S6l1115h20,S6l1115h24,S6p1230h05,S1c0131h21,S1d0211h20,S1e0301h23,S4j0909h01,S6l1115h02,S6m1126h01,S6m1126h20,S6m1126h23,S6n1206h20,S6p1230h03,S1b0105h06,S1b0105h20,S1g0318h01,S1g0318h19,S1g0318h20,S2aH8,S5k1007h06,S6m1126h06,S6m1126h19,S6p1230h21,S1c0131h04,S1e0301h19,S1f0306h19,S2i0517h01,S4j0909h02,S4j0909h06,S4j0909h22,S6l1115h01,S6n1206h02,S6p1230h02,S6p1230h24,S1b0105h22,S1c0131h23,S1d0211h23,S1e0301h20,S1f0306h01,S1f0306h20,S1f0306h21,S2i0517h23,S4aH6,S6o1225h24,S6p1230h04,S6p1230h22,S1b0105h04,S4j0909h03,S6aH8,S6l1115h06,S6l1115h22,S6m1126h05,S6n1206h04,S6n1206h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18</v>
+        <v>S1aH3,S1f0306h12,S1h0411h07,S2i0517h10,S4j0909h17,S6l1115h15,S6l1115h18,S6m1126h18,S6o1225h08,S6o1225h14,S1c0131h18,S1g0318h15,S5k1007h08,S5k1007h11,S6aH5,S6l1115h13,S6o1225h09,S6p1230h08,S6p1230h09,S6p1230h18,S1b0105h07,S1b0105h08,S1c0131h11,S1e0301h10,S1g0318h14,S2i0517h14,S4j0909h16,S5k1007h09,S5k1007h15,S6n1206h11,S6p1230h14,S1c0131h14,S1c0131h17,S1d0211h14,S1e0301h18,S1f0306h11,S1g0318h17,S1h0411h13,S2i0517h09,S3aH5,S5aH3,S6l1115h14,S6m1126h17,S6n1206h12,S6p1230h07,S6p1230h13,S1aH4,S1c0131h10,S1e0301h07,S1g0318h07,S1g0318h09,S1g0318h16,S2aH2,S2i0517h08,S6l1115h09,S6l1115h11,S6m1126h08,S6m1126h10,S6m1126h11,S6n1206h09,S1b0105h16,S1c0131h16,S1d0211h13,S1e0301h12,S1f0306h13,S1f0306h18,S2i0517h07,S2i0517h13,S4aH2,S4j0909h08,S4j0909h09,S5k1007h10,S6o1225h10,S6o1225h13,S1b0105h09,S1f0306h09,S1f0306h15,S1g0318h12,S1h0411h09,S1h0411h17,S3aH4,S4aH3,S4aH4,S6l1115h12,S6m1126h12,S6o1225h11,S6p1230h11,S1b0105h10,S1b0105h15,S1b0105h18,S1c0131h12,S1d0211h17,S1f0306h08,S1f0306h10,S1g0318h11,S2i0517h17,S4j0909h13,S5k1007h12,S6m1126h07,S6p1230h15,S1c0131h15,S1d0211h15,S1e0301h11,S1f0306h14,S1g0318h10,S2i0517h11,S3aH2,S5k1007h13,S6l1115h08,S6p1230h17,S1aH5,S1b0105h12,S1d0211h07,S1d0211h16,S1e0301h09,S1e0301h14,S1g0318h18,S1h0411h11,S1h0411h12,S1h0411h16,S2aH4,S2aH5,S2i0517h16,S5aH2,S5aH5,S5k1007h18,S6aH2,S6m1126h15,S6n1206h16,S1aH2,S1b0105h14,S2aH3,S6l1115h10,S6l1115h17,S6m1126h09,S6n1206h07,S6n1206h17,S1c0131h07,S1d0211h08,S1d0211h12,S1e0301h08,S1f0306h07,S1h0411h15,S2i0517h15,S4aH5,S4j0909h11,S4j0909h12,S6l1115h07,S6m1126h14,S1c0131h09,S1d0211h09,S1e0301h15,S1h0411h18,S2i0517h12,S4j0909h14,S4j0909h18,S6n1206h14,S6n1206h18,S6o1225h07,S6o1225h12,S6p1230h12,S1b0105h11,S1c0131h13,S1d0211h10,S1d0211h11,S1e0301h17,S1g0318h13,S1h0411h10,S4j0909h15,S5aH4,S6aH3,S6aH4,S6n1206h08,S6n1206h10,S6n1206h13,S6o1225h16,S6p1230h16,S1b0105h13,S1b0105h17,S1c0131h08,S1d0211h18,S1e0301h13,S1f0306h17,S1g0318h08,S3aH3,S5k1007h07,S6l1115h16,S6m1126h13,S6m1126h16,S6n1206h15,S6o1225h17,S6o1225h18,S1e0301h16,S1f0306h16,S1h0411h08,S1h0411h14,S2i0517h18,S4j0909h07,S4j0909h10,S5k1007h14,S5k1007h16,S5k1007h17,S6o1225h15,S6p1230h10</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266A3DB7-F1BD-4790-AE1F-99BEC929D12B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B01E33-9947-4AB3-AF66-FE98CD322F5F}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EC4FA-D586-43BE-BCA1-68A273180BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE4AE42-31F8-4969-966D-C97E29A7AD04}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>878</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>8.8500694123091153E-2</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.13490282276723739</v>
+        <v>8.8500694123091153E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>878</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.40439611291068944</v>
+        <v>0.31582600647848219</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>9.3706617306802395E-2</v>
+        <v>0.13490282276723739</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.31582600647848219</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71071197-173F-45B5-827E-7D0D4490F395}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B21982-A2D7-4881-95B9-0B5D374E3943}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38561C5-3EB0-4987-AA93-5E5FA8A5A5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A37EFE-FBC9-4826-B0C9-E6B59CAF59F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09</t>
-  </si>
-  <si>
-    <t>S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22</t>
+    <t>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22</v>
+        <v>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09</v>
+        <v>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C9477B-A7C4-4FD5-A256-0E3E0BD5031B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ED35DD-C168-4265-A689-4CA069979CD7}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F6468C-2330-453E-A4C8-0C7EEBC2CD47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F90C69-B833-40E7-9889-8C3F7A2C1DCC}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>878</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>0.37937297547431742</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>878</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.25252198056455344</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N7">
-        <v>7.5520592318371119E-2</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>0.14770939379916706</v>
+        <v>0.2511684405367885</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>0.25116844053678855</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861BFFBA-5461-43C0-B5B6-CA67A4E42C71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396B879D-FBC6-4F30-A76B-B8C74BA6C8AA}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A37EFE-FBC9-4826-B0C9-E6B59CAF59F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A125BB-70FA-4A1F-9289-DDFBC41B228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13</t>
-  </si>
-  <si>
-    <t>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01</t>
+    <t>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01</v>
+        <v>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13</v>
+        <v>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ED35DD-C168-4265-A689-4CA069979CD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244DD1E0-B1AE-4A15-B2F6-446EDD676743}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F90C69-B833-40E7-9889-8C3F7A2C1DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7972B49E-F6B8-4DF0-A809-60B105E46F5A}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>878</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>0.14770939379916706</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.37937297547431742</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>878</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>7.5520592318371119E-2</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>9.3706617306802395E-2</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7222,7 +7222,7 @@
         <v>89</v>
       </c>
       <c r="N8">
-        <v>0.2511684405367885</v>
+        <v>0.25116844053678855</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.25252198056455344</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396B879D-FBC6-4F30-A76B-B8C74BA6C8AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6458BBC5-AE24-450E-B5D5-270108272B7D}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A125BB-70FA-4A1F-9289-DDFBC41B228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8863F6-51DF-4AE7-B957-73EF06CC58D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12</t>
-  </si>
-  <si>
-    <t>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20</t>
+    <t>S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13</t>
+  </si>
+  <si>
+    <t>S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20</v>
+        <v>S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12</v>
+        <v>S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244DD1E0-B1AE-4A15-B2F6-446EDD676743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A0D736-8FA1-419D-AADC-AD25E68D2661}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7972B49E-F6B8-4DF0-A809-60B105E46F5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA59D32-DE97-44DE-B879-07543E0F50E1}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7149,10 +7149,10 @@
         <v>878</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N6">
-        <v>0.25252198056455344</v>
+        <v>0.25116844053678855</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>7.5520592318371119E-2</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.25116844053678855</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6458BBC5-AE24-450E-B5D5-270108272B7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A386760-DEC3-4FD3-BD79-9C740DC6123C}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8863F6-51DF-4AE7-B957-73EF06CC58D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE955164-1FB2-41AB-90F8-9701996AA4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2676,7 +2676,7 @@
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
-    <t>elc_win-ITA</t>
+    <t>elc_won-ITA</t>
   </si>
   <si>
     <t>g_yrfr</t>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13</t>
-  </si>
-  <si>
-    <t>S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01</t>
+    <t>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15</t>
+  </si>
+  <si>
+    <t>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01</v>
+        <v>S1b0202h03,S1b0202h22,S1d0227h05,S2aH1,S2e0303h24,S3h0411h06,S5aH8,S5j0904h06,S5k0917h24,S6l1008h01,S6m1031h06,S6p1224h21,S6p1224h24,S1b0202h01,S1c0218h06,S1c0218h20,S2e0303h20,S2f0318h04,S2f0318h19,S2f0318h21,S2g0331h01,S2g0331h03,S2g0331h24,S3h0411h02,S3i0624h01,S5j0904h04,S5k0917h03,S6m1031h04,S6n1209h02,S6n1209h23,S6o1216h01,S6p1224h01,S1b0202h19,S1c0218h04,S1d0227h22,S2f0318h06,S2g0331h02,S3aH1,S3h0411h03,S3i0624h22,S5k0917h02,S6l1008h02,S6m1031h19,S6p1224h19,S1b0202h24,S1c0218h21,S1d0227h04,S1d0227h23,S2e0303h05,S2f0318h23,S3aH8,S5j0904h24,S6l1008h04,S6m1031h05,S6m1031h24,S6n1209h06,S1aH1,S1b0202h20,S1b0202h23,S2f0318h02,S2f0318h03,S2f0318h24,S2g0331h19,S2g0331h21,S3h0411h04,S3i0624h06,S6l1008h19,S6m1031h01,S6p1224h04,S6p1224h23,S1b0202h05,S1b0202h06,S1d0227h24,S2g0331h04,S3h0411h21,S5j0904h03,S5k0917h01,S5k0917h05,S5k0917h22,S6m1031h02,S6p1224h03,S6p1224h06,S6p1224h22,S1c0218h05,S2e0303h23,S2g0331h22,S3i0624h24,S6o1216h23,S1aH8,S1c0218h01,S3h0411h05,S5aH1,S5j0904h19,S5k0917h06,S6n1209h20,S1d0227h02,S1d0227h03,S3i0624h20,S6l1008h24,S6m1031h21,S6n1209h03,S6n1209h05,S6n1209h21,S6p1224h05,S1b0202h04,S1c0218h03,S2e0303h02,S2f0318h01,S2f0318h20,S3h0411h22,S4aH8,S5k0917h23,S6l1008h06,S6o1216h02,S6o1216h19,S1c0218h24,S1d0227h01,S1d0227h19,S1d0227h20,S1d0227h21,S2e0303h06,S3i0624h19,S3i0624h21,S3i0624h23,S5j0904h22,S5k0917h20,S6l1008h23,S6m1031h20,S6n1209h19,S6o1216h06,S6p1224h20,S1b0202h02,S1b0202h21,S1c0218h02,S1c0218h23,S2aH8,S2e0303h19,S2g0331h06,S2g0331h20,S3h0411h19,S3h0411h20,S3i0624h05,S5k0917h04,S6l1008h22,S6m1031h22,S6n1209h01,S6n1209h04,S6n1209h24,S6o1216h04,S6p1224h02,S2e0303h03,S2e0303h21,S2f0318h22,S3h0411h23,S3h0411h24,S3i0624h02,S4aH1,S5j0904h02,S5k0917h19,S6aH1,S6o1216h05,S6o1216h21,S6o1216h22,S6o1216h24,S2e0303h22,S2g0331h05,S5j0904h20,S5j0904h21,S5j0904h23,S5k0917h21,S6l1008h03,S6l1008h20,S6l1008h21,S6m1031h23,S2e0303h01,S2e0303h04,S2g0331h23,S3h0411h01,S3i0624h04,S5j0904h01,S6l1008h05,S6m1031h03,S6n1209h22,S1c0218h19,S1c0218h22,S1d0227h06,S2f0318h05,S3i0624h03,S5j0904h05,S6aH8,S6o1216h03,S6o1216h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13</v>
+        <v>S1d0227h16,S2e0303h07,S2e0303h12,S4aH2,S5j0904h10,S5k0917h17,S6l1008h10,S6l1008h14,S6m1031h11,S6o1216h14,S6p1224h09,S1b0202h15,S1c0218h12,S2f0318h11,S3aH3,S3h0411h07,S3h0411h12,S3i0624h09,S3i0624h18,S5k0917h13,S6o1216h13,S1c0218h16,S2e0303h14,S2f0318h12,S5j0904h16,S5k0917h18,S6aH7,S6m1031h17,S6p1224h08,S1b0202h08,S1b0202h11,S2e0303h09,S2f0318h17,S2g0331h18,S3aH2,S3h0411h08,S3i0624h07,S5j0904h07,S5k0917h11,S6l1008h12,S6l1008h17,S6m1031h13,S6o1216h18,S2e0303h17,S2e0303h18,S3h0411h09,S3h0411h10,S3i0624h08,S5j0904h08,S6m1031h10,S6n1209h08,S6p1224h13,S1aH5,S1b0202h07,S1d0227h14,S1d0227h15,S1d0227h17,S2aH4,S2aH5,S2e0303h13,S3h0411h13,S5aH2,S5aH5,S5j0904h14,S5k0917h12,S6aH2,S6n1209h07,S6n1209h09,S1c0218h07,S1d0227h13,S2f0318h07,S2f0318h15,S2g0331h10,S2g0331h15,S2g0331h17,S3h0411h18,S3i0624h11,S4aH5,S5k0917h08,S6l1008h08,S6l1008h11,S6l1008h13,S6l1008h15,S6n1209h10,S6n1209h12,S6n1209h14,S6o1216h07,S6o1216h15,S6p1224h11,S1b0202h14,S1c0218h08,S1c0218h17,S1d0227h10,S2aH6,S2e0303h08,S2f0318h14,S2g0331h09,S3aH5,S3h0411h14,S3h0411h16,S3i0624h14,S5aH3,S5j0904h18,S5k0917h07,S5k0917h14,S6n1209h18,S6o1216h12,S6p1224h12,S1aH3,S1c0218h10,S2g0331h08,S2g0331h16,S3i0624h10,S5k0917h15,S6m1031h07,S6m1031h08,S6n1209h11,S6o1216h16,S6p1224h10,S6p1224h14,S1b0202h09,S1c0218h11,S1c0218h15,S1d0227h18,S2e0303h10,S2f0318h08,S2f0318h13,S6aH5,S6l1008h18,S6o1216h10,S6p1224h16,S1b0202h13,S1b0202h16,S2e0303h11,S2f0318h16,S2f0318h18,S3i0624h12,S3i0624h15,S5aH4,S5j0904h17,S5k0917h16,S6aH3,S6aH4,S6l1008h16,S6m1031h09,S6m1031h12,S6m1031h15,S6m1031h16,S6n1209h15,S6o1216h17,S1c0218h14,S1d0227h08,S1d0227h09,S1d0227h11,S3aH7,S5j0904h09,S5j0904h12,S6o1216h09,S1aH4,S1b0202h12,S2aH2,S2e0303h15,S2e0303h16,S2g0331h07,S2g0331h12,S3h0411h11,S3h0411h17,S4aH6,S5j0904h15,S5k0917h09,S6o1216h11,S1b0202h10,S1b0202h18,S1c0218h09,S2aH7,S2g0331h14,S3aH4,S3i0624h16,S4aH3,S4aH4,S6l1008h09,S6m1031h18,S6n1209h16,S1aH2,S1aH7,S1b0202h17,S1d0227h12,S2aH3,S2g0331h11,S3aH6,S3h0411h15,S3i0624h17,S4aH7,S5aH6,S5aH7,S5j0904h11,S5j0904h13,S5k0917h10,S6aH6,S6n1209h17,S6p1224h07,S6p1224h17,S6p1224h18,S1aH6,S1c0218h13,S1c0218h18,S1d0227h07,S2f0318h09,S2f0318h10,S2g0331h13,S3i0624h13,S6l1008h07,S6m1031h14,S6n1209h13,S6o1216h08,S6p1224h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A0D736-8FA1-419D-AADC-AD25E68D2661}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007EDD7B-2D10-47A2-A07C-74D38B2D1E6B}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA59D32-DE97-44DE-B879-07543E0F50E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BC4A05-CD89-4065-B47A-8A8622C08922}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7079,10 +7079,10 @@
         <v>878</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.37937297547431742</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>9.3706617306802395E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>878</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N6">
-        <v>0.25116844053678855</v>
+        <v>9.3706617306802395E-2</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.25252198056455344</v>
+        <v>0.37937297547431742</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>7.5520592318371119E-2</v>
+        <v>0.25252198056455344</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="N9">
-        <v>0.14770939379916706</v>
+        <v>0.25116844053678855</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A386760-DEC3-4FD3-BD79-9C740DC6123C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207ABCF0-46B9-46E2-9511-E1377D5B9205}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287450C1-CF07-4F0C-87C8-602409CA3A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC8E921-D1E1-4C11-9681-D33482C688BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2658,10 +2658,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S2e0304h13,S2f0314h09,S2f0314h12,S2f0314h16,S2g0315h09,S2h0318h14,S2j0328h12,S3l0417h18,S4m1007h15,S4o1024h13,S4o1024h15,S5p1230h07,S5p1230h15,S1b0103h11,S2e0304h16,S3aH2,S3k0416h16,S4m1007h08,S4n1021h13,S4n1021h15,S5p1230h08,S5p1230h13,S1d0226h13,S2h0318h18,S2j0328h13,S3k0416h17,S4m1007h09,S4n1021h09,S4o1024h09,S5p1230h16,S1c0202h15,S1d0226h07,S2g0315h08,S2g0315h13,S2h0318h15,S2j0328h15,S3l0417h07,S4m1007h18,S4n1021h14,S4n1021h16,S4o1024h10,S4o1024h12,S4o1024h17,S5aH4,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S2aH3,S2f0314h15,S2g0315h15,S2g0315h17,S2i0321h08,S2i0321h13,S3k0416h09,S3k0416h11,S3l0417h09,S3l0417h17,S4m1007h11,S1c0202h07,S1c0202h08,S1d0226h15,S2e0304h09,S2g0315h07,S2g0315h16,S2h0318h17,S2i0321h07,S2i0321h10,S2i0321h17,S2j0328h18,S3aH5,S4m1007h17,S5aH3,S5p1230h10,S1b0103h08,S2f0314h08,S2f0314h13,S2h0318h13,S2i0321h18,S2j0328h09,S2j0328h11,S3k0416h07,S3k0416h15,S3l0417h11,S4m1007h14,S5p1230h11,S1aH5,S1c0202h14,S1d0226h11,S2aH4,S2aH5,S2e0304h08,S2f0314h10,S2g0315h10,S2h0318h08,S2i0321h09,S3k0416h18,S3l0417h16,S4m1007h07,S4m1007h16,S4n1021h12,S4o1024h16,S4o1024h18,S5aH2,S5aH5,S1b0103h07,S1b0103h12,S1d0226h09,S2e0304h14,S2j0328h08,S4o1024h08,S5p1230h12,S1c0202h13,S2e0304h11,S2f0314h11,S2g0315h11,S2h0318h12,S2j0328h16,S3k0416h14,S3l0417h13,S4aH2,S5p1230h17,S1b0103h09,S1b0103h14,S2e0304h10,S2f0314h07,S2f0314h14,S2h0318h09,S2h0318h10,S2h0318h16,S2i0321h16,S3aH3,S3k0416h10,S3l0417h12,S4m1007h12,S1b0103h13,S1c0202h09,S2e0304h15,S2e0304h18,S2f0314h18,S2h0318h11,S2i0321h12,S3k0416h08,S4aH5,S4m1007h10,S4n1021h08,S4o1024h11,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S2e0304h17,S2g0315h12,S2h0318h07,S3l0417h15,S5p1230h09,S2e0304h07,S2f0314h17,S2g0315h14,S2g0315h18,S2j0328h10,S3k0416h12,S3l0417h10,S3l0417h14,S4n1021h18,S4o1024h07,S4o1024h14,S5p1230h14,S2e0304h12,S2j0328h14,S3aH4,S3k0416h13,S3l0417h08,S4aH3,S4aH4,S4m1007h13,S4n1021h07,S4n1021h11,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S2aH2,S2i0321h11,S2i0321h14,S2i0321h15,S2j0328h07,S2j0328h17,S4n1021h10,S4n1021h17,S5p1230h18</t>
-  </si>
-  <si>
-    <t>S1aH7,S1c0202h06,S2i0321h03,S2i0321h21,S2i0321h23,S2j0328h24,S3aH6,S3k0416h20,S3l0417h06,S3l0417h19,S3l0417h23,S4aH7,S4n1021h24,S5aH6,S5aH7,S5p1230h22,S1d0226h21,S2e0304h06,S2f0314h21,S2g0315h02,S2g0315h24,S2i0321h22,S3aH8,S3l0417h22,S4o1024h04,S5p1230h03,S5p1230h19,S1d0226h04,S2f0314h01,S2f0314h19,S3k0416h22,S4aH8,S4n1021h23,S4o1024h01,S5p1230h06,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2g0315h20,S2i0321h20,S4m1007h02,S4m1007h03,S4n1021h20,S4o1024h20,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S2e0304h02,S2g0315h06,S2h0318h06,S2h0318h23,S2i0321h19,S2j0328h05,S4m1007h06,S5p1230h23,S1aH8,S1b0103h21,S2e0304h03,S2e0304h19,S2g0315h01,S2h0318h01,S2i0321h05,S2j0328h06,S4m1007h05,S4m1007h20,S5aH1,S5p1230h01,S1b0103h01,S1b0103h02,S2aH8,S2g0315h05,S2h0318h02,S2i0321h04,S2i0321h24,S3l0417h01,S3l0417h21,S3l0417h24,S4n1021h04,S4o1024h06,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S4o1024h03,S4o1024h19,S4o1024h21,S4o1024h24,S5p1230h21,S1c0202h21,S2aH6,S2e0304h04,S2e0304h05,S2e0304h23,S2f0314h03,S2f0314h22,S2g0315h22,S2g0315h23,S2h0318h04,S2h0318h19,S2h0318h22,S2i0321h06,S2j0328h23,S3aH1,S3k0416h04,S3l0417h02,S4n1021h19,S4o1024h22,S5p1230h02,S5p1230h24,S1c0202h22,S1c0202h24,S2aH1,S2f0314h20,S2g0315h19,S2j0328h02,S2j0328h04,S3aH7,S3k0416h05,S3k0416h23,S3l0417h05,S4m1007h23,S5aH8,S5p1230h04,S5p1230h20,S1b0103h06,S1d0226h06,S2e0304h24,S2f0314h05,S2g0315h03,S2h0318h05,S2h0318h20,S2i0321h02,S2j0328h22,S3k0416h01,S3k0416h02,S4aH6,S4n1021h06,S1c0202h03,S1d0226h03,S1d0226h20,S4m1007h01,S4n1021h02,S5p1230h05,S1d0226h24,S2e0304h20,S2f0314h02,S2f0314h24,S2g0315h04,S2h0318h21,S2j0328h20,S2j0328h21,S4m1007h19,S4m1007h24,S4o1024h02,S4o1024h23,S1aH1,S1b0103h23,S1d0226h23,S2aH7,S2f0314h04,S2g0315h21,S2h0318h24,S2j0328h19,S3k0416h19,S3k0416h24,S4m1007h04,S1b0103h22,S1b0103h24,S1c0202h01,S2e0304h01,S2e0304h22,S2f0314h06,S2f0314h23,S2h0318h03,S2j0328h01,S2j0328h03,S3k0416h03,S3k0416h06,S3k0416h21,S3l0417h20,S4m1007h22,S4n1021h03,S4o1024h05,S1b0103h03,S1b0103h05,S1b0103h19,S2e0304h21,S2i0321h01,S3l0417h03,S3l0417h04,S4aH1,S4m1007h21,S4n1021h01,S4n1021h05,S4n1021h21,S4n1021h22</t>
+    <t>S1b0103h08,S2f0314h08,S2f0314h13,S2h0318h13,S2i0321h18,S2j0328h09,S2j0328h11,S3k0416h07,S3k0416h15,S3l0417h11,S4m1007h14,S5p1230h11,S1d0226h13,S2h0318h18,S2j0328h13,S3k0416h17,S4m1007h09,S4n1021h09,S4o1024h09,S5p1230h16,S1c0202h07,S1c0202h08,S1d0226h15,S2e0304h09,S2g0315h07,S2g0315h16,S2h0318h17,S2i0321h07,S2i0321h10,S2i0321h17,S2j0328h18,S3aH5,S4m1007h17,S5aH3,S5p1230h10,S1b0103h13,S1c0202h09,S2e0304h15,S2e0304h18,S2f0314h18,S2h0318h11,S2i0321h12,S3k0416h08,S4aH5,S4m1007h10,S4n1021h08,S4o1024h11,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S2aH3,S2f0314h15,S2g0315h15,S2g0315h17,S2i0321h08,S2i0321h13,S3k0416h09,S3k0416h11,S3l0417h09,S3l0417h17,S4m1007h11,S1aH5,S1c0202h14,S1d0226h11,S2aH4,S2aH5,S2e0304h08,S2f0314h10,S2g0315h10,S2h0318h08,S2i0321h09,S3k0416h18,S3l0417h16,S4m1007h07,S4m1007h16,S4n1021h12,S4o1024h16,S4o1024h18,S5aH2,S5aH5,S1c0202h15,S1d0226h07,S2g0315h08,S2g0315h13,S2h0318h15,S2j0328h15,S3l0417h07,S4m1007h18,S4n1021h14,S4n1021h16,S4o1024h10,S4o1024h12,S4o1024h17,S5aH4,S1b0103h11,S2e0304h16,S3aH2,S3k0416h16,S4m1007h08,S4n1021h13,S4n1021h15,S5p1230h08,S5p1230h13,S1b0103h07,S1b0103h12,S1d0226h09,S2e0304h14,S2j0328h08,S4o1024h08,S5p1230h12,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S2e0304h13,S2f0314h09,S2f0314h12,S2f0314h16,S2g0315h09,S2h0318h14,S2j0328h12,S3l0417h18,S4m1007h15,S4o1024h13,S4o1024h15,S5p1230h07,S5p1230h15,S1b0103h09,S1b0103h14,S2e0304h10,S2f0314h07,S2f0314h14,S2h0318h09,S2h0318h10,S2h0318h16,S2i0321h16,S3aH3,S3k0416h10,S3l0417h12,S4m1007h12,S2e0304h07,S2f0314h17,S2g0315h14,S2g0315h18,S2j0328h10,S3k0416h12,S3l0417h10,S3l0417h14,S4n1021h18,S4o1024h07,S4o1024h14,S5p1230h14,S2e0304h12,S2j0328h14,S3aH4,S3k0416h13,S3l0417h08,S4aH3,S4aH4,S4m1007h13,S4n1021h07,S4n1021h11,S1c0202h13,S2e0304h11,S2f0314h11,S2g0315h11,S2h0318h12,S2j0328h16,S3k0416h14,S3l0417h13,S4aH2,S5p1230h17,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S2e0304h17,S2g0315h12,S2h0318h07,S3l0417h15,S5p1230h09,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S2aH2,S2i0321h11,S2i0321h14,S2i0321h15,S2j0328h07,S2j0328h17,S4n1021h10,S4n1021h17,S5p1230h18</t>
+  </si>
+  <si>
+    <t>S1b0103h01,S1b0103h02,S2aH8,S2g0315h05,S2h0318h02,S2i0321h04,S2i0321h24,S3l0417h01,S3l0417h21,S3l0417h24,S4n1021h04,S4o1024h06,S1d0226h04,S2f0314h01,S2f0314h19,S3k0416h22,S4aH8,S4n1021h23,S4o1024h01,S5p1230h06,S1aH8,S1b0103h21,S2e0304h03,S2e0304h19,S2g0315h01,S2h0318h01,S2i0321h05,S2j0328h06,S4m1007h05,S4m1007h20,S5aH1,S5p1230h01,S1c0202h03,S1d0226h03,S1d0226h20,S4m1007h01,S4n1021h02,S5p1230h05,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S2e0304h02,S2g0315h06,S2h0318h06,S2h0318h23,S2i0321h19,S2j0328h05,S4m1007h06,S5p1230h23,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S4o1024h03,S4o1024h19,S4o1024h21,S4o1024h24,S5p1230h21,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2g0315h20,S2i0321h20,S4m1007h02,S4m1007h03,S4n1021h20,S4o1024h20,S1d0226h21,S2e0304h06,S2f0314h21,S2g0315h02,S2g0315h24,S2i0321h22,S3aH8,S3l0417h22,S4o1024h04,S5p1230h03,S5p1230h19,S1c0202h21,S2aH6,S2e0304h04,S2e0304h05,S2e0304h23,S2f0314h03,S2f0314h22,S2g0315h22,S2g0315h23,S2h0318h04,S2h0318h19,S2h0318h22,S2i0321h06,S2j0328h23,S3aH1,S3k0416h04,S3l0417h02,S4n1021h19,S4o1024h22,S5p1230h02,S5p1230h24,S1aH7,S1c0202h06,S2i0321h03,S2i0321h21,S2i0321h23,S2j0328h24,S3aH6,S3k0416h20,S3l0417h06,S3l0417h19,S3l0417h23,S4aH7,S4n1021h24,S5aH6,S5aH7,S5p1230h22,S1b0103h06,S1d0226h06,S2e0304h24,S2f0314h05,S2g0315h03,S2h0318h05,S2h0318h20,S2i0321h02,S2j0328h22,S3k0416h01,S3k0416h02,S4aH6,S4n1021h06,S1aH1,S1b0103h23,S1d0226h23,S2aH7,S2f0314h04,S2g0315h21,S2h0318h24,S2j0328h19,S3k0416h19,S3k0416h24,S4m1007h04,S1b0103h22,S1b0103h24,S1c0202h01,S2e0304h01,S2e0304h22,S2f0314h06,S2f0314h23,S2h0318h03,S2j0328h01,S2j0328h03,S3k0416h03,S3k0416h06,S3k0416h21,S3l0417h20,S4m1007h22,S4n1021h03,S4o1024h05,S1c0202h22,S1c0202h24,S2aH1,S2f0314h20,S2g0315h19,S2j0328h02,S2j0328h04,S3aH7,S3k0416h05,S3k0416h23,S3l0417h05,S4m1007h23,S5aH8,S5p1230h04,S5p1230h20,S1d0226h24,S2e0304h20,S2f0314h02,S2f0314h24,S2g0315h04,S2h0318h21,S2j0328h20,S2j0328h21,S4m1007h19,S4m1007h24,S4o1024h02,S4o1024h23,S1b0103h03,S1b0103h05,S1b0103h19,S2e0304h21,S2i0321h01,S3l0417h03,S3l0417h04,S4aH1,S4m1007h21,S4n1021h01,S4n1021h05,S4n1021h21,S4n1021h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1c0202h06,S2i0321h03,S2i0321h21,S2i0321h23,S2j0328h24,S3aH6,S3k0416h20,S3l0417h06,S3l0417h19,S3l0417h23,S4aH7,S4n1021h24,S5aH6,S5aH7,S5p1230h22,S1d0226h21,S2e0304h06,S2f0314h21,S2g0315h02,S2g0315h24,S2i0321h22,S3aH8,S3l0417h22,S4o1024h04,S5p1230h03,S5p1230h19,S1d0226h04,S2f0314h01,S2f0314h19,S3k0416h22,S4aH8,S4n1021h23,S4o1024h01,S5p1230h06,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2g0315h20,S2i0321h20,S4m1007h02,S4m1007h03,S4n1021h20,S4o1024h20,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S2e0304h02,S2g0315h06,S2h0318h06,S2h0318h23,S2i0321h19,S2j0328h05,S4m1007h06,S5p1230h23,S1aH8,S1b0103h21,S2e0304h03,S2e0304h19,S2g0315h01,S2h0318h01,S2i0321h05,S2j0328h06,S4m1007h05,S4m1007h20,S5aH1,S5p1230h01,S1b0103h01,S1b0103h02,S2aH8,S2g0315h05,S2h0318h02,S2i0321h04,S2i0321h24,S3l0417h01,S3l0417h21,S3l0417h24,S4n1021h04,S4o1024h06,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S4o1024h03,S4o1024h19,S4o1024h21,S4o1024h24,S5p1230h21,S1c0202h21,S2aH6,S2e0304h04,S2e0304h05,S2e0304h23,S2f0314h03,S2f0314h22,S2g0315h22,S2g0315h23,S2h0318h04,S2h0318h19,S2h0318h22,S2i0321h06,S2j0328h23,S3aH1,S3k0416h04,S3l0417h02,S4n1021h19,S4o1024h22,S5p1230h02,S5p1230h24,S1c0202h22,S1c0202h24,S2aH1,S2f0314h20,S2g0315h19,S2j0328h02,S2j0328h04,S3aH7,S3k0416h05,S3k0416h23,S3l0417h05,S4m1007h23,S5aH8,S5p1230h04,S5p1230h20,S1b0103h06,S1d0226h06,S2e0304h24,S2f0314h05,S2g0315h03,S2h0318h05,S2h0318h20,S2i0321h02,S2j0328h22,S3k0416h01,S3k0416h02,S4aH6,S4n1021h06,S1c0202h03,S1d0226h03,S1d0226h20,S4m1007h01,S4n1021h02,S5p1230h05,S1d0226h24,S2e0304h20,S2f0314h02,S2f0314h24,S2g0315h04,S2h0318h21,S2j0328h20,S2j0328h21,S4m1007h19,S4m1007h24,S4o1024h02,S4o1024h23,S1aH1,S1b0103h23,S1d0226h23,S2aH7,S2f0314h04,S2g0315h21,S2h0318h24,S2j0328h19,S3k0416h19,S3k0416h24,S4m1007h04,S1b0103h22,S1b0103h24,S1c0202h01,S2e0304h01,S2e0304h22,S2f0314h06,S2f0314h23,S2h0318h03,S2j0328h01,S2j0328h03,S3k0416h03,S3k0416h06,S3k0416h21,S3l0417h20,S4m1007h22,S4n1021h03,S4o1024h05,S1b0103h03,S1b0103h05,S1b0103h19,S2e0304h21,S2i0321h01,S3l0417h03,S3l0417h04,S4aH1,S4m1007h21,S4n1021h01,S4n1021h05,S4n1021h21,S4n1021h22</v>
+        <v>S1b0103h01,S1b0103h02,S2aH8,S2g0315h05,S2h0318h02,S2i0321h04,S2i0321h24,S3l0417h01,S3l0417h21,S3l0417h24,S4n1021h04,S4o1024h06,S1d0226h04,S2f0314h01,S2f0314h19,S3k0416h22,S4aH8,S4n1021h23,S4o1024h01,S5p1230h06,S1aH8,S1b0103h21,S2e0304h03,S2e0304h19,S2g0315h01,S2h0318h01,S2i0321h05,S2j0328h06,S4m1007h05,S4m1007h20,S5aH1,S5p1230h01,S1c0202h03,S1d0226h03,S1d0226h20,S4m1007h01,S4n1021h02,S5p1230h05,S1c0202h02,S1c0202h05,S1c0202h19,S1d0226h01,S1d0226h05,S1d0226h19,S2e0304h02,S2g0315h06,S2h0318h06,S2h0318h23,S2i0321h19,S2j0328h05,S4m1007h06,S5p1230h23,S1aH6,S1c0202h04,S1c0202h23,S1d0226h02,S4o1024h03,S4o1024h19,S4o1024h21,S4o1024h24,S5p1230h21,S1b0103h04,S1b0103h20,S1c0202h20,S1d0226h22,S2g0315h20,S2i0321h20,S4m1007h02,S4m1007h03,S4n1021h20,S4o1024h20,S1d0226h21,S2e0304h06,S2f0314h21,S2g0315h02,S2g0315h24,S2i0321h22,S3aH8,S3l0417h22,S4o1024h04,S5p1230h03,S5p1230h19,S1c0202h21,S2aH6,S2e0304h04,S2e0304h05,S2e0304h23,S2f0314h03,S2f0314h22,S2g0315h22,S2g0315h23,S2h0318h04,S2h0318h19,S2h0318h22,S2i0321h06,S2j0328h23,S3aH1,S3k0416h04,S3l0417h02,S4n1021h19,S4o1024h22,S5p1230h02,S5p1230h24,S1aH7,S1c0202h06,S2i0321h03,S2i0321h21,S2i0321h23,S2j0328h24,S3aH6,S3k0416h20,S3l0417h06,S3l0417h19,S3l0417h23,S4aH7,S4n1021h24,S5aH6,S5aH7,S5p1230h22,S1b0103h06,S1d0226h06,S2e0304h24,S2f0314h05,S2g0315h03,S2h0318h05,S2h0318h20,S2i0321h02,S2j0328h22,S3k0416h01,S3k0416h02,S4aH6,S4n1021h06,S1aH1,S1b0103h23,S1d0226h23,S2aH7,S2f0314h04,S2g0315h21,S2h0318h24,S2j0328h19,S3k0416h19,S3k0416h24,S4m1007h04,S1b0103h22,S1b0103h24,S1c0202h01,S2e0304h01,S2e0304h22,S2f0314h06,S2f0314h23,S2h0318h03,S2j0328h01,S2j0328h03,S3k0416h03,S3k0416h06,S3k0416h21,S3l0417h20,S4m1007h22,S4n1021h03,S4o1024h05,S1c0202h22,S1c0202h24,S2aH1,S2f0314h20,S2g0315h19,S2j0328h02,S2j0328h04,S3aH7,S3k0416h05,S3k0416h23,S3l0417h05,S4m1007h23,S5aH8,S5p1230h04,S5p1230h20,S1d0226h24,S2e0304h20,S2f0314h02,S2f0314h24,S2g0315h04,S2h0318h21,S2j0328h20,S2j0328h21,S4m1007h19,S4m1007h24,S4o1024h02,S4o1024h23,S1b0103h03,S1b0103h05,S1b0103h19,S2e0304h21,S2i0321h01,S3l0417h03,S3l0417h04,S4aH1,S4m1007h21,S4n1021h01,S4n1021h05,S4n1021h21,S4n1021h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S2e0304h13,S2f0314h09,S2f0314h12,S2f0314h16,S2g0315h09,S2h0318h14,S2j0328h12,S3l0417h18,S4m1007h15,S4o1024h13,S4o1024h15,S5p1230h07,S5p1230h15,S1b0103h11,S2e0304h16,S3aH2,S3k0416h16,S4m1007h08,S4n1021h13,S4n1021h15,S5p1230h08,S5p1230h13,S1d0226h13,S2h0318h18,S2j0328h13,S3k0416h17,S4m1007h09,S4n1021h09,S4o1024h09,S5p1230h16,S1c0202h15,S1d0226h07,S2g0315h08,S2g0315h13,S2h0318h15,S2j0328h15,S3l0417h07,S4m1007h18,S4n1021h14,S4n1021h16,S4o1024h10,S4o1024h12,S4o1024h17,S5aH4,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S2aH3,S2f0314h15,S2g0315h15,S2g0315h17,S2i0321h08,S2i0321h13,S3k0416h09,S3k0416h11,S3l0417h09,S3l0417h17,S4m1007h11,S1c0202h07,S1c0202h08,S1d0226h15,S2e0304h09,S2g0315h07,S2g0315h16,S2h0318h17,S2i0321h07,S2i0321h10,S2i0321h17,S2j0328h18,S3aH5,S4m1007h17,S5aH3,S5p1230h10,S1b0103h08,S2f0314h08,S2f0314h13,S2h0318h13,S2i0321h18,S2j0328h09,S2j0328h11,S3k0416h07,S3k0416h15,S3l0417h11,S4m1007h14,S5p1230h11,S1aH5,S1c0202h14,S1d0226h11,S2aH4,S2aH5,S2e0304h08,S2f0314h10,S2g0315h10,S2h0318h08,S2i0321h09,S3k0416h18,S3l0417h16,S4m1007h07,S4m1007h16,S4n1021h12,S4o1024h16,S4o1024h18,S5aH2,S5aH5,S1b0103h07,S1b0103h12,S1d0226h09,S2e0304h14,S2j0328h08,S4o1024h08,S5p1230h12,S1c0202h13,S2e0304h11,S2f0314h11,S2g0315h11,S2h0318h12,S2j0328h16,S3k0416h14,S3l0417h13,S4aH2,S5p1230h17,S1b0103h09,S1b0103h14,S2e0304h10,S2f0314h07,S2f0314h14,S2h0318h09,S2h0318h10,S2h0318h16,S2i0321h16,S3aH3,S3k0416h10,S3l0417h12,S4m1007h12,S1b0103h13,S1c0202h09,S2e0304h15,S2e0304h18,S2f0314h18,S2h0318h11,S2i0321h12,S3k0416h08,S4aH5,S4m1007h10,S4n1021h08,S4o1024h11,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S2e0304h17,S2g0315h12,S2h0318h07,S3l0417h15,S5p1230h09,S2e0304h07,S2f0314h17,S2g0315h14,S2g0315h18,S2j0328h10,S3k0416h12,S3l0417h10,S3l0417h14,S4n1021h18,S4o1024h07,S4o1024h14,S5p1230h14,S2e0304h12,S2j0328h14,S3aH4,S3k0416h13,S3l0417h08,S4aH3,S4aH4,S4m1007h13,S4n1021h07,S4n1021h11,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S2aH2,S2i0321h11,S2i0321h14,S2i0321h15,S2j0328h07,S2j0328h17,S4n1021h10,S4n1021h17,S5p1230h18</v>
+        <v>S1b0103h08,S2f0314h08,S2f0314h13,S2h0318h13,S2i0321h18,S2j0328h09,S2j0328h11,S3k0416h07,S3k0416h15,S3l0417h11,S4m1007h14,S5p1230h11,S1d0226h13,S2h0318h18,S2j0328h13,S3k0416h17,S4m1007h09,S4n1021h09,S4o1024h09,S5p1230h16,S1c0202h07,S1c0202h08,S1d0226h15,S2e0304h09,S2g0315h07,S2g0315h16,S2h0318h17,S2i0321h07,S2i0321h10,S2i0321h17,S2j0328h18,S3aH5,S4m1007h17,S5aH3,S5p1230h10,S1b0103h13,S1c0202h09,S2e0304h15,S2e0304h18,S2f0314h18,S2h0318h11,S2i0321h12,S3k0416h08,S4aH5,S4m1007h10,S4n1021h08,S4o1024h11,S1aH2,S1c0202h11,S1d0226h17,S1d0226h18,S2aH3,S2f0314h15,S2g0315h15,S2g0315h17,S2i0321h08,S2i0321h13,S3k0416h09,S3k0416h11,S3l0417h09,S3l0417h17,S4m1007h11,S1aH5,S1c0202h14,S1d0226h11,S2aH4,S2aH5,S2e0304h08,S2f0314h10,S2g0315h10,S2h0318h08,S2i0321h09,S3k0416h18,S3l0417h16,S4m1007h07,S4m1007h16,S4n1021h12,S4o1024h16,S4o1024h18,S5aH2,S5aH5,S1c0202h15,S1d0226h07,S2g0315h08,S2g0315h13,S2h0318h15,S2j0328h15,S3l0417h07,S4m1007h18,S4n1021h14,S4n1021h16,S4o1024h10,S4o1024h12,S4o1024h17,S5aH4,S1b0103h11,S2e0304h16,S3aH2,S3k0416h16,S4m1007h08,S4n1021h13,S4n1021h15,S5p1230h08,S5p1230h13,S1b0103h07,S1b0103h12,S1d0226h09,S2e0304h14,S2j0328h08,S4o1024h08,S5p1230h12,S1aH3,S1b0103h10,S1b0103h16,S1c0202h10,S1d0226h12,S2e0304h13,S2f0314h09,S2f0314h12,S2f0314h16,S2g0315h09,S2h0318h14,S2j0328h12,S3l0417h18,S4m1007h15,S4o1024h13,S4o1024h15,S5p1230h07,S5p1230h15,S1b0103h09,S1b0103h14,S2e0304h10,S2f0314h07,S2f0314h14,S2h0318h09,S2h0318h10,S2h0318h16,S2i0321h16,S3aH3,S3k0416h10,S3l0417h12,S4m1007h12,S2e0304h07,S2f0314h17,S2g0315h14,S2g0315h18,S2j0328h10,S3k0416h12,S3l0417h10,S3l0417h14,S4n1021h18,S4o1024h07,S4o1024h14,S5p1230h14,S2e0304h12,S2j0328h14,S3aH4,S3k0416h13,S3l0417h08,S4aH3,S4aH4,S4m1007h13,S4n1021h07,S4n1021h11,S1c0202h13,S2e0304h11,S2f0314h11,S2g0315h11,S2h0318h12,S2j0328h16,S3k0416h14,S3l0417h13,S4aH2,S5p1230h17,S1b0103h18,S1c0202h12,S1c0202h17,S1c0202h18,S1d0226h14,S1d0226h16,S2e0304h17,S2g0315h12,S2h0318h07,S3l0417h15,S5p1230h09,S1aH4,S1b0103h15,S1b0103h17,S1c0202h16,S1d0226h08,S1d0226h10,S2aH2,S2i0321h11,S2i0321h14,S2i0321h15,S2j0328h07,S2j0328h17,S4n1021h10,S4n1021h17,S5p1230h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3878,7 +3878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571DFCF4-E283-4A12-8BB4-5EF0F830C2AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05E7626-0EC2-4F55-BFAB-4888F9A8C17D}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6968,7 +6968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6987D2-CDC4-4905-A431-E26749520A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6FEF38-055D-41F7-B576-FC83015E09C5}">
   <dimension ref="B2:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7047,10 +7047,10 @@
         <v>868</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N4">
-        <v>7.5520592318371105E-2</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O4" t="s">
         <v>879</v>
@@ -7082,10 +7082,10 @@
         <v>868</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.14770939379916703</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O5" t="s">
         <v>879</v>
@@ -7117,10 +7117,10 @@
         <v>868</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.18220731142989352</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O6" t="s">
         <v>879</v>
@@ -7152,10 +7152,10 @@
         <v>868</v>
       </c>
       <c r="M7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.6318949560388708</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O7" t="s">
         <v>879</v>
@@ -17472,7 +17472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87DA80A-A3DD-4BC8-9D07-3B1BBE15E850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5BAD93-66FB-4A40-B436-279F8E9F501A}">
   <dimension ref="B2:O803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
